--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96565C99-1F6B-4012-B519-6F3A35B31C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E194A64D-1DCF-4739-82CD-75A4FF7C5413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="3645" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$193</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="445">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3797,13 +3797,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="P184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomRight" activeCell="S184" sqref="S184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4088,7 +4089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>29</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>31</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
         <v>32</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>33</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>34</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>35</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>37</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35">
         <v>40</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>41</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>42</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>43</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35">
         <v>44</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>45</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>47</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>48</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35">
         <v>49</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35">
         <v>50</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35">
         <v>51</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35">
         <v>64</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35">
         <v>66</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35">
         <v>67</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="35">
         <v>68</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35">
         <v>69</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="35">
         <v>70</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="35">
         <v>71</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="35">
         <v>72</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
         <v>73</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
         <v>74</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
         <v>76</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
         <v>78</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
         <v>79</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
         <v>80</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>81</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="35">
         <v>83</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="35">
         <v>84</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="35">
         <v>85</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="35">
         <v>86</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="35">
         <v>87</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="35">
         <v>88</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="35">
         <v>89</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="35">
         <v>90</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="35">
         <v>91</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="35">
         <v>92</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="35">
         <v>93</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35">
         <v>95</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="35">
         <v>97</v>
       </c>
@@ -6361,7 +6362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="35">
         <v>98</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="35">
         <v>99</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="35">
         <v>100</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="35">
         <v>101</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="35">
         <v>102</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="35">
         <v>103</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="35">
         <v>104</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="35">
         <v>105</v>
       </c>
@@ -6657,7 +6658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="35">
         <v>106</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="35">
         <v>108</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="35">
         <v>110</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="35">
         <v>111</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="35">
         <v>112</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="35">
         <v>113</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="35">
         <v>114</v>
       </c>
@@ -6916,7 +6917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="35">
         <v>115</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="35">
         <v>116</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="35">
         <v>117</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35">
         <v>118</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35">
         <v>119</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="35">
         <v>120</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="35">
         <v>121</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="35">
         <v>123</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="35">
         <v>125</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="35">
         <v>126</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="35">
         <v>127</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="35">
         <v>128</v>
       </c>
@@ -7360,7 +7361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="35">
         <v>129</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="35">
         <v>130</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="35">
         <v>131</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="35">
         <v>132</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="35">
         <v>133</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="35">
         <v>134</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="35">
         <v>135</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="35">
         <v>136</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="35">
         <v>137</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="35">
         <v>138</v>
       </c>
@@ -7730,7 +7731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="35">
         <v>139</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="35">
         <v>140</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="35">
         <v>141</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="35">
         <v>142</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35">
         <v>143</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="35">
         <v>144</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="35">
         <v>145</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="35">
         <v>146</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="35">
         <v>152</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="35">
         <v>154</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="35">
         <v>155</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="35">
         <v>156</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="35">
         <v>159</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="35">
         <v>160</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="35">
         <v>161</v>
       </c>
@@ -8285,7 +8286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="35">
         <v>162</v>
       </c>
@@ -8322,7 +8323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="35">
         <v>163</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="35">
         <v>164</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="35">
         <v>165</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="35">
         <v>166</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="35">
         <v>167</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="35">
         <v>168</v>
       </c>
@@ -8544,7 +8545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="35">
         <v>169</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -9173,7 +9174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -9210,7 +9211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="35">
         <v>417</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="35">
         <v>418</v>
       </c>
@@ -9284,7 +9285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="35">
         <v>419</v>
       </c>
@@ -9321,7 +9322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="35">
         <v>423</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="35">
         <v>424</v>
       </c>
@@ -9395,7 +9396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="35">
         <v>425</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="35">
         <v>432</v>
       </c>
@@ -9469,7 +9470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="35">
         <v>433</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="35">
         <v>434</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="35">
         <v>435</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="35">
         <v>437</v>
       </c>
@@ -9617,7 +9618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="35">
         <v>438</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="35">
         <v>440</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="35">
         <v>441</v>
       </c>
@@ -9728,7 +9729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="35">
         <v>442</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="35">
         <v>443</v>
       </c>
@@ -9802,7 +9803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="35">
         <v>448</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="35">
         <v>449</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="35">
         <v>450</v>
       </c>
@@ -9913,7 +9914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="35">
         <v>451</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="35">
         <v>452</v>
       </c>
@@ -9987,7 +9988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="35">
         <v>454</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="35">
         <v>455</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="35">
         <v>456</v>
       </c>
@@ -10098,7 +10099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="35">
         <v>457</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="35">
         <v>458</v>
       </c>
@@ -10172,7 +10173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="35">
         <v>459</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="35">
         <v>460</v>
       </c>
@@ -10246,7 +10247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="35">
         <v>461</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="35">
         <v>462</v>
       </c>
@@ -10320,7 +10321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="35">
         <v>463</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="35">
         <v>464</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="35">
         <v>465</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="35">
         <v>466</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="35">
         <v>467</v>
       </c>
@@ -10505,7 +10506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="35">
         <v>468</v>
       </c>
@@ -10562,7 +10563,9 @@
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
-      <c r="J184" s="38"/>
+      <c r="J184" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K184" s="38"/>
       <c r="L184" s="35"/>
       <c r="M184" s="38"/>
@@ -10579,7 +10582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="35">
         <v>470</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="35">
         <v>471</v>
       </c>
@@ -10653,7 +10656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="35">
         <v>472</v>
       </c>
@@ -10690,7 +10693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="35">
         <v>473</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="35">
         <v>474</v>
       </c>
@@ -10764,7 +10767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="35">
         <v>475</v>
       </c>
@@ -10821,7 +10824,9 @@
       <c r="G191" s="37"/>
       <c r="H191" s="37"/>
       <c r="I191" s="42"/>
-      <c r="J191" s="38"/>
+      <c r="J191" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
       <c r="M191" s="38"/>
@@ -10858,7 +10863,9 @@
       <c r="G192" s="37"/>
       <c r="H192" s="37"/>
       <c r="I192" s="42"/>
-      <c r="J192" s="38"/>
+      <c r="J192" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
       <c r="M192" s="38"/>
@@ -14879,7 +14886,13 @@
     <row r="749" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="750" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W190" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PSS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E194A64D-1DCF-4739-82CD-75A4FF7C5413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E641CB9-CC68-4B18-9F9E-A0DCF25EB635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="3645" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="445">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1716,16 +1716,16 @@
     <t>subject_application_vendor: TS23 di Laura Livolsi</t>
   </si>
   <si>
+    <t>subject_application_version: 1.4.46</t>
+  </si>
+  <si>
+    <t>e51da09d8be6f610d6e88eebbe82c479</t>
+  </si>
+  <si>
     <t>2025-12-22T09:06:57Z</t>
   </si>
   <si>
-    <t>e51da09d8be6f610d6e88eebbe82c479</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.0aed577d985ac5b7dc696bd28ddcc5be9f0e3129223c778d75225dc453033baa.523720f2b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>subject_application_version: 1.4.46</t>
   </si>
 </sst>
 </file>
@@ -3801,10 +3801,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="P184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S184" sqref="S184"/>
+      <selection pane="bottomRight" activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3930,7 +3930,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="6"/>
@@ -10563,9 +10563,7 @@
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
-      <c r="J184" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="J184" s="38"/>
       <c r="K184" s="38"/>
       <c r="L184" s="35"/>
       <c r="M184" s="38"/>
@@ -10824,9 +10822,7 @@
       <c r="G191" s="37"/>
       <c r="H191" s="37"/>
       <c r="I191" s="42"/>
-      <c r="J191" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="J191" s="38"/>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
       <c r="M191" s="38"/>
@@ -10863,9 +10859,7 @@
       <c r="G192" s="37"/>
       <c r="H192" s="37"/>
       <c r="I192" s="42"/>
-      <c r="J192" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="J192" s="38"/>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
       <c r="M192" s="38"/>
@@ -10902,13 +10896,13 @@
         <v>46013</v>
       </c>
       <c r="G193" s="37" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H193" s="37" t="s">
         <v>442</v>
       </c>
       <c r="I193" s="42" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J193" s="38" t="s">
         <v>64</v>
@@ -17176,6 +17170,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17319,22 +17328,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17352,31 +17371,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E641CB9-CC68-4B18-9F9E-A0DCF25EB635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A62506-CCB2-49D2-AE4A-A84890B54024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -69,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="468">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1727,6 +1724,75 @@
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.0aed577d985ac5b7dc696bd28ddcc5be9f0e3129223c778d75225dc453033baa.523720f2b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
+  <si>
+    <t>2024-06-03T06:50:08Z</t>
+  </si>
+  <si>
+    <t>65d6b4483615fde2</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>Recupero certificati di firma e/o di autorizzazione, non riuscito riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
+  </si>
+  <si>
+    <t>L’errore viene segnalato a video all’utente finale, che se il programma persiste chiamerà help-desk</t>
+  </si>
+  <si>
+    <t>Problemi nel collegamento riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
+  </si>
+  <si>
+    <t>2024-05-28T14:18:45Z</t>
+  </si>
+  <si>
+    <t>36cf91a15d8ac09c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.d0edf3ec1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]"</t>
+  </si>
+  <si>
+    <t>L’errore viene segnalato a video all’utente finale, che procederà all'inserimento del dato mancante</t>
+  </si>
+  <si>
+    <t>2024-05-29T13:31:24Z</t>
+  </si>
+  <si>
+    <t>ba92278e4da59874</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.daaabda70a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
+  </si>
+  <si>
+    <t>2024-05-28T15:36:14Z</t>
+  </si>
+  <si>
+    <t>f98a8c0a1a33a601</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.02f3ff0bd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico. "[ERROR-50| Il valore dell'elemento effectiveTime/high : '20240528000000+0200' deve essere maggiore o uguale di quello di effectiveTime/low : '20240528173557+0200'.]"</t>
+  </si>
+  <si>
+    <t>2024-07-18T12:58:11Z</t>
+  </si>
+  <si>
+    <t>2c72eef492670982</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.439d4ca808^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>00620de68d44c090</t>
+  </si>
 </sst>
 </file>
 
@@ -1735,11 +1801,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1858,6 +1931,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1879,7 +1957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2197,162 +2275,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ABAC978E-F0AA-4E40-A151-5C5E5E33A4E6}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -3801,10 +3945,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J193" sqref="J193"/>
+      <selection pane="bottomRight" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3846,12 +3990,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="57"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3872,14 +4016,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="65" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="57"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3900,12 +4044,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="65" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3927,12 +4071,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="57"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3953,8 +4097,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4216,20 +4360,44 @@
       <c r="E13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="38"/>
+      <c r="F13" s="47">
+        <v>45446</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="M13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>449</v>
+      </c>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
@@ -4512,20 +4680,44 @@
       <c r="E21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="38"/>
+      <c r="F21" s="47">
+        <v>45446</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="M21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" s="50" t="s">
+        <v>449</v>
+      </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
@@ -4812,20 +5004,38 @@
       <c r="E29" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="F29" s="37"/>
+      <c r="F29" s="47">
+        <v>45441</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="38"/>
+      <c r="J29" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
+      <c r="M29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29" s="50" t="s">
+        <v>449</v>
+      </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
         <v>64</v>
@@ -8602,8 +8812,12 @@
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
+      <c r="J131" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K131" s="50" t="s">
+        <v>233</v>
+      </c>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -8635,20 +8849,44 @@
       <c r="E132" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="38"/>
+      <c r="F132" s="47">
+        <v>45440</v>
+      </c>
+      <c r="G132" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="H132" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="I132" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="J132" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K132" s="38"/>
       <c r="L132" s="38"/>
-      <c r="M132" s="38"/>
-      <c r="N132" s="38"/>
-      <c r="O132" s="38"/>
-      <c r="P132" s="38"/>
-      <c r="Q132" s="38"/>
-      <c r="R132" s="38"/>
-      <c r="S132" s="38"/>
+      <c r="M132" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N132" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O132" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="P132" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q132" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R132" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S132" s="49" t="s">
+        <v>455</v>
+      </c>
       <c r="T132" s="38"/>
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
@@ -8672,20 +8910,44 @@
       <c r="E133" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="38"/>
+      <c r="F133" s="37">
+        <v>45441</v>
+      </c>
+      <c r="G133" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="H133" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="I133" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="J133" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K133" s="38"/>
       <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
-      <c r="O133" s="38"/>
-      <c r="P133" s="38"/>
-      <c r="Q133" s="38"/>
-      <c r="R133" s="38"/>
-      <c r="S133" s="38"/>
+      <c r="M133" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N133" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O133" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="P133" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q133" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R133" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S133" s="49" t="s">
+        <v>455</v>
+      </c>
       <c r="T133" s="38"/>
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
@@ -8713,8 +8975,12 @@
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
       <c r="I134" s="42"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
+      <c r="J134" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K134" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L134" s="38"/>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8750,8 +9016,12 @@
       <c r="G135" s="37"/>
       <c r="H135" s="37"/>
       <c r="I135" s="42"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
+      <c r="J135" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K135" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L135" s="38"/>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8787,8 +9057,12 @@
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
       <c r="I136" s="42"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="38"/>
+      <c r="J136" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K136" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L136" s="38"/>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -8824,8 +9098,12 @@
       <c r="G137" s="37"/>
       <c r="H137" s="37"/>
       <c r="I137" s="42"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
+      <c r="J137" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K137" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L137" s="38"/>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -8861,8 +9139,12 @@
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
       <c r="I138" s="42"/>
-      <c r="J138" s="38"/>
-      <c r="K138" s="38"/>
+      <c r="J138" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K138" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L138" s="38"/>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -8894,20 +9176,44 @@
       <c r="E139" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="38"/>
+      <c r="F139" s="37">
+        <v>45440</v>
+      </c>
+      <c r="G139" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="H139" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="I139" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="J139" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K139" s="38"/>
       <c r="L139" s="38"/>
-      <c r="M139" s="38"/>
-      <c r="N139" s="38"/>
-      <c r="O139" s="38"/>
-      <c r="P139" s="38"/>
-      <c r="Q139" s="38"/>
-      <c r="R139" s="38"/>
-      <c r="S139" s="38"/>
+      <c r="M139" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N139" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O139" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="P139" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q139" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R139" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S139" s="49" t="s">
+        <v>455</v>
+      </c>
       <c r="T139" s="38"/>
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
@@ -8935,8 +9241,12 @@
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
       <c r="I140" s="42"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
+      <c r="J140" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K140" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L140" s="38"/>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -8972,8 +9282,12 @@
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
       <c r="I141" s="42"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
+      <c r="J141" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K141" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L141" s="38"/>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9009,8 +9323,12 @@
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
       <c r="I142" s="42"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="38"/>
+      <c r="J142" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K142" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L142" s="38"/>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9046,8 +9364,12 @@
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
       <c r="I143" s="42"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
+      <c r="J143" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K143" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L143" s="38"/>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9083,8 +9405,12 @@
       <c r="G144" s="37"/>
       <c r="H144" s="37"/>
       <c r="I144" s="42"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="38"/>
+      <c r="J144" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K144" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L144" s="38"/>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -9120,8 +9446,12 @@
       <c r="G145" s="37"/>
       <c r="H145" s="37"/>
       <c r="I145" s="42"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="38"/>
+      <c r="J145" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K145" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L145" s="38"/>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -10563,8 +10893,12 @@
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
-      <c r="J184" s="38"/>
-      <c r="K184" s="38"/>
+      <c r="J184" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K184" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L184" s="35"/>
       <c r="M184" s="38"/>
       <c r="N184" s="38"/>
@@ -10818,11 +11152,21 @@
       <c r="E191" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="F191" s="37"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="37"/>
-      <c r="I191" s="42"/>
-      <c r="J191" s="38"/>
+      <c r="F191" s="51">
+        <v>45491</v>
+      </c>
+      <c r="G191" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="H191" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="I191" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="J191" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
       <c r="M191" s="38"/>
@@ -10855,11 +11199,21 @@
       <c r="E192" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="37"/>
-      <c r="I192" s="42"/>
-      <c r="J192" s="38"/>
+      <c r="F192" s="53">
+        <v>45491</v>
+      </c>
+      <c r="G192" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="H192" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="I192" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="J192" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
       <c r="M192" s="38"/>
@@ -14896,7 +15250,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A62506-CCB2-49D2-AE4A-A84890B54024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB2E5B-9572-4DC5-9696-212E8869E98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="466">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1716,82 +1716,77 @@
     <t>subject_application_version: 1.4.46</t>
   </si>
   <si>
-    <t>e51da09d8be6f610d6e88eebbe82c479</t>
-  </si>
-  <si>
-    <t>2025-12-22T09:06:57Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.0aed577d985ac5b7dc696bd28ddcc5be9f0e3129223c778d75225dc453033baa.523720f2b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-06-03T06:50:08Z</t>
-  </si>
-  <si>
-    <t>65d6b4483615fde2</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>Recupero certificati di firma e/o di autorizzazione, non riuscito riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
-  </si>
-  <si>
     <t>L’errore viene segnalato a video all’utente finale, che se il programma persiste chiamerà help-desk</t>
   </si>
   <si>
     <t>Problemi nel collegamento riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
   </si>
   <si>
-    <t>2024-05-28T14:18:45Z</t>
-  </si>
-  <si>
-    <t>36cf91a15d8ac09c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.d0edf3ec1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Errore semantico "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]"</t>
   </si>
   <si>
     <t>L’errore viene segnalato a video all’utente finale, che procederà all'inserimento del dato mancante</t>
   </si>
   <si>
-    <t>2024-05-29T13:31:24Z</t>
-  </si>
-  <si>
-    <t>ba92278e4da59874</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.daaabda70a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
   </si>
   <si>
-    <t>2024-05-28T15:36:14Z</t>
-  </si>
-  <si>
-    <t>f98a8c0a1a33a601</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.02f3ff0bd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore semantico. "[ERROR-50| Il valore dell'elemento effectiveTime/high : '20240528000000+0200' deve essere maggiore o uguale di quello di effectiveTime/low : '20240528173557+0200'.]"</t>
-  </si>
-  <si>
-    <t>2024-07-18T12:58:11Z</t>
-  </si>
-  <si>
-    <t>2c72eef492670982</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.439d4ca808^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>00620de68d44c090</t>
+    <t>2026-02-12T14:13:31Z</t>
+  </si>
+  <si>
+    <t>800f3319cfd16fa0cb194eadbd10b46d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.a47ea8a649^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T14:27:16Z</t>
+  </si>
+  <si>
+    <t>fa412ac6d01a1e7da6c046402a4b75d7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.394afc9371^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>detail: "[ERROR-57| Il valore dell'elemento effectiveTime/high : '20240528000000+0200' 
+			deve essere maggiore o uguale di quello di effectiveTime/low : '20260212154823+0100'.]"</t>
+  </si>
+  <si>
+    <t>2026-02-12T14:51:13Z</t>
+  </si>
+  <si>
+    <t>61ca4398213ae4ce3902ca4a7577cc16</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.b23c744999^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T15:02:20Z</t>
+  </si>
+  <si>
+    <t>e793c3d323a030be8ef5a2cd804c337a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.4a6aafdbad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T15:30:04Z</t>
+  </si>
+  <si>
+    <t>27101021fbf41bb7c35c3a65ee74d351</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.d2ab87e857^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8d30a506a2e7d61789052e9db4e609c9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.72dd2b1218^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T15:36:05Z</t>
   </si>
 </sst>
 </file>
@@ -3945,10 +3940,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A192" sqref="A192"/>
+      <selection pane="bottomRight" activeCell="G193" sqref="G193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4360,44 +4355,24 @@
       <c r="E13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="47">
-        <v>45446</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>447</v>
-      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L13" s="38"/>
-      <c r="M13" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="R13" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="S13" s="50" t="s">
-        <v>449</v>
-      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="50"/>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
@@ -4680,44 +4655,24 @@
       <c r="E21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="47">
-        <v>45446</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>447</v>
-      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L21" s="38"/>
-      <c r="M21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="R21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" s="50" t="s">
-        <v>449</v>
-      </c>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="50"/>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
@@ -5022,7 +4977,7 @@
         <v>64</v>
       </c>
       <c r="O29" s="49" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>226</v>
@@ -5034,7 +4989,7 @@
         <v>64</v>
       </c>
       <c r="S29" s="50" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
@@ -8850,16 +8805,16 @@
         <v>334</v>
       </c>
       <c r="F132" s="47">
-        <v>45440</v>
+        <v>46065</v>
       </c>
       <c r="G132" s="48" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>64</v>
@@ -8873,7 +8828,7 @@
         <v>64</v>
       </c>
       <c r="O132" s="49" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="P132" s="38" t="s">
         <v>226</v>
@@ -8885,7 +8840,7 @@
         <v>64</v>
       </c>
       <c r="S132" s="49" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="T132" s="38"/>
       <c r="U132" s="39"/>
@@ -8911,16 +8866,16 @@
         <v>335</v>
       </c>
       <c r="F133" s="37">
-        <v>45441</v>
+        <v>46065</v>
       </c>
       <c r="G133" s="48" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H133" s="48" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I133" s="48" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="J133" s="38" t="s">
         <v>64</v>
@@ -8934,7 +8889,7 @@
         <v>64</v>
       </c>
       <c r="O133" s="49" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P133" s="38" t="s">
         <v>226</v>
@@ -8946,7 +8901,7 @@
         <v>64</v>
       </c>
       <c r="S133" s="49" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="T133" s="38"/>
       <c r="U133" s="39"/>
@@ -9177,16 +9132,16 @@
         <v>340</v>
       </c>
       <c r="F139" s="37">
-        <v>45440</v>
+        <v>46065</v>
       </c>
       <c r="G139" s="48" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H139" s="48" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I139" s="42" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J139" s="38" t="s">
         <v>64</v>
@@ -9200,7 +9155,7 @@
         <v>64</v>
       </c>
       <c r="O139" s="49" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="P139" s="38" t="s">
         <v>226</v>
@@ -9212,7 +9167,7 @@
         <v>64</v>
       </c>
       <c r="S139" s="49" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="T139" s="38"/>
       <c r="U139" s="39"/>
@@ -11153,16 +11108,16 @@
         <v>433</v>
       </c>
       <c r="F191" s="51">
-        <v>45491</v>
+        <v>46065</v>
       </c>
       <c r="G191" s="52" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="H191" s="52" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I191" s="52" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J191" s="38" t="s">
         <v>64</v>
@@ -11200,16 +11155,16 @@
         <v>434</v>
       </c>
       <c r="F192" s="53">
-        <v>45491</v>
+        <v>46065</v>
       </c>
       <c r="G192" s="52" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H192" s="52" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I192" s="52" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -11247,16 +11202,16 @@
         <v>437</v>
       </c>
       <c r="F193" s="37">
-        <v>46013</v>
+        <v>46065</v>
       </c>
       <c r="G193" s="37" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="H193" s="37" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="I193" s="42" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="J193" s="38" t="s">
         <v>64</v>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB2E5B-9572-4DC5-9696-212E8869E98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A9299C-5D18-4F33-A46D-7B6A5FE433CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="450" windowWidth="28800" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="473">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1786,7 +1786,28 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.72dd2b1218^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2026-02-12T15:36:05Z</t>
+    <t>17/</t>
+  </si>
+  <si>
+    <t>2026-02-17T09:02:09Z</t>
+  </si>
+  <si>
+    <t>707b524770975ca9b645d7f756f993e1</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>Campo token JWT non valido. Il campo purpose_of_use non è valorizzato</t>
+  </si>
+  <si>
+    <t>2026-02-17T09:15:22Z</t>
+  </si>
+  <si>
+    <t>e330fdd7371b04b8d321f960dac33cf4</t>
+  </si>
+  <si>
+    <t>Campo token JWT non valido. Il campo action_id non è corretto</t>
   </si>
 </sst>
 </file>
@@ -3940,10 +3961,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G193" sqref="G193"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4355,24 +4376,44 @@
       <c r="E13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="F13" s="47">
+        <v>46070</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>468</v>
+      </c>
       <c r="J13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="K13" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="50"/>
+      <c r="R13" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>442</v>
+      </c>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
@@ -4655,24 +4696,44 @@
       <c r="E21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="F21" s="47">
+        <v>46070</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>468</v>
+      </c>
       <c r="J21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="50"/>
+      <c r="R21" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="S21" s="50" t="s">
+        <v>442</v>
+      </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
@@ -17479,21 +17540,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17637,32 +17683,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17680,6 +17716,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A9299C-5D18-4F33-A46D-7B6A5FE433CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33606DD3-B296-4DC8-A461-C8680FC54F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="450" windowWidth="28800" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="2775" windowWidth="28800" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -3961,10 +3961,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17540,6 +17540,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17683,22 +17698,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17716,31 +17741,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33606DD3-B296-4DC8-A461-C8680FC54F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B49E5A-7136-4AFB-8A43-A2E150CBF44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="2775" windowWidth="28800" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,9 +1707,6 @@
 *) Il test in questione è da intendersi obbligatorio per gli applicativi che si stanno accreditando per la prima volta per PSS; nel caso di applicativi già accreditati, sarà sufficiente sottomettere il caso di test 478 (Fast Track)</t>
   </si>
   <si>
-    <t>subject_application_id: Tserve</t>
-  </si>
-  <si>
     <t>subject_application_vendor: TS23 di Laura Livolsi</t>
   </si>
   <si>
@@ -1808,6 +1805,9 @@
   </si>
   <si>
     <t>Campo token JWT non valido. Il campo action_id non è corretto</t>
+  </si>
+  <si>
+    <t>subject_application_id: TServe</t>
   </si>
 </sst>
 </file>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="65" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="D3" s="57"/>
       <c r="F3" s="6"/>
@@ -4063,7 +4063,7 @@
       <c r="A4" s="61"/>
       <c r="B4" s="62"/>
       <c r="C4" s="65" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="4"/>
@@ -4090,7 +4090,7 @@
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="57"/>
       <c r="F5" s="6"/>
@@ -4380,13 +4380,13 @@
         <v>46070</v>
       </c>
       <c r="G13" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="H13" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="I13" s="48" t="s">
         <v>467</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>468</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>64</v>
@@ -4400,7 +4400,7 @@
         <v>64</v>
       </c>
       <c r="O13" s="49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P13" s="38" t="s">
         <v>64</v>
@@ -4412,7 +4412,7 @@
         <v>226</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
@@ -4700,13 +4700,13 @@
         <v>46070</v>
       </c>
       <c r="G21" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="H21" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="H21" s="48" t="s">
-        <v>471</v>
-      </c>
       <c r="I21" s="48" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>64</v>
@@ -4720,7 +4720,7 @@
         <v>64</v>
       </c>
       <c r="O21" s="49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>64</v>
@@ -4732,7 +4732,7 @@
         <v>226</v>
       </c>
       <c r="S21" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
@@ -5038,7 +5038,7 @@
         <v>64</v>
       </c>
       <c r="O29" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>226</v>
@@ -5050,7 +5050,7 @@
         <v>64</v>
       </c>
       <c r="S29" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
@@ -8869,13 +8869,13 @@
         <v>46065</v>
       </c>
       <c r="G132" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="H132" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="H132" s="48" t="s">
+      <c r="I132" s="48" t="s">
         <v>448</v>
-      </c>
-      <c r="I132" s="48" t="s">
-        <v>449</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>64</v>
@@ -8889,7 +8889,7 @@
         <v>64</v>
       </c>
       <c r="O132" s="49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P132" s="38" t="s">
         <v>226</v>
@@ -8901,7 +8901,7 @@
         <v>64</v>
       </c>
       <c r="S132" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T132" s="38"/>
       <c r="U132" s="39"/>
@@ -8930,13 +8930,13 @@
         <v>46065</v>
       </c>
       <c r="G133" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="H133" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="H133" s="48" t="s">
+      <c r="I133" s="48" t="s">
         <v>451</v>
-      </c>
-      <c r="I133" s="48" t="s">
-        <v>452</v>
       </c>
       <c r="J133" s="38" t="s">
         <v>64</v>
@@ -8950,7 +8950,7 @@
         <v>64</v>
       </c>
       <c r="O133" s="49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P133" s="38" t="s">
         <v>226</v>
@@ -8962,7 +8962,7 @@
         <v>64</v>
       </c>
       <c r="S133" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T133" s="38"/>
       <c r="U133" s="39"/>
@@ -9196,13 +9196,13 @@
         <v>46065</v>
       </c>
       <c r="G139" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="H139" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="H139" s="48" t="s">
+      <c r="I139" s="42" t="s">
         <v>455</v>
-      </c>
-      <c r="I139" s="42" t="s">
-        <v>456</v>
       </c>
       <c r="J139" s="38" t="s">
         <v>64</v>
@@ -9216,7 +9216,7 @@
         <v>64</v>
       </c>
       <c r="O139" s="49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P139" s="38" t="s">
         <v>226</v>
@@ -9228,7 +9228,7 @@
         <v>64</v>
       </c>
       <c r="S139" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T139" s="38"/>
       <c r="U139" s="39"/>
@@ -11172,13 +11172,13 @@
         <v>46065</v>
       </c>
       <c r="G191" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="H191" s="52" t="s">
         <v>457</v>
       </c>
-      <c r="H191" s="52" t="s">
+      <c r="I191" s="52" t="s">
         <v>458</v>
-      </c>
-      <c r="I191" s="52" t="s">
-        <v>459</v>
       </c>
       <c r="J191" s="38" t="s">
         <v>64</v>
@@ -11219,13 +11219,13 @@
         <v>46065</v>
       </c>
       <c r="G192" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="H192" s="52" t="s">
         <v>460</v>
       </c>
-      <c r="H192" s="52" t="s">
+      <c r="I192" s="52" t="s">
         <v>461</v>
-      </c>
-      <c r="I192" s="52" t="s">
-        <v>462</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -11266,13 +11266,13 @@
         <v>46065</v>
       </c>
       <c r="G193" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H193" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="I193" s="42" t="s">
         <v>463</v>
-      </c>
-      <c r="I193" s="42" t="s">
-        <v>464</v>
       </c>
       <c r="J193" s="38" t="s">
         <v>64</v>
@@ -17540,21 +17540,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17698,32 +17683,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17741,6 +17716,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B49E5A-7136-4AFB-8A43-A2E150CBF44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C544895B-2613-470F-9C86-4C5CCE8E4F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2775" windowWidth="28800" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="1785" windowWidth="30675" windowHeight="11910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1759,33 +1759,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.b23c744999^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2026-02-12T15:02:20Z</t>
-  </si>
-  <si>
-    <t>e793c3d323a030be8ef5a2cd804c337a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.4a6aafdbad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-02-12T15:30:04Z</t>
-  </si>
-  <si>
-    <t>27101021fbf41bb7c35c3a65ee74d351</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.d2ab87e857^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8d30a506a2e7d61789052e9db4e609c9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.72dd2b1218^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>17/</t>
-  </si>
-  <si>
     <t>2026-02-17T09:02:09Z</t>
   </si>
   <si>
@@ -1808,6 +1781,33 @@
   </si>
   <si>
     <t>subject_application_id: TServe</t>
+  </si>
+  <si>
+    <t>2026-02-24T13:22:30Z</t>
+  </si>
+  <si>
+    <t>60a6805e53f67ef025c6321d6ce0920a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.daaedcaa16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-24T13:32:44Z</t>
+  </si>
+  <si>
+    <t>30170b69925df940038d0f6fa27dcb0f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.ebca2885b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-24T13:37:03Z</t>
+  </si>
+  <si>
+    <t>86359d40e999ad63196eb34cfc095623</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.acfd593793^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3961,10 +3961,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
+      <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="65" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D3" s="57"/>
       <c r="F3" s="6"/>
@@ -4380,13 +4380,13 @@
         <v>46070</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>64</v>
@@ -4400,7 +4400,7 @@
         <v>64</v>
       </c>
       <c r="O13" s="49" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="P13" s="38" t="s">
         <v>64</v>
@@ -4700,13 +4700,13 @@
         <v>46070</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>64</v>
@@ -4720,7 +4720,7 @@
         <v>64</v>
       </c>
       <c r="O21" s="49" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>64</v>
@@ -11169,16 +11169,16 @@
         <v>433</v>
       </c>
       <c r="F191" s="51">
-        <v>46065</v>
+        <v>46077</v>
       </c>
       <c r="G191" s="52" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H191" s="52" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="I191" s="52" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="J191" s="38" t="s">
         <v>64</v>
@@ -11216,16 +11216,16 @@
         <v>434</v>
       </c>
       <c r="F192" s="53">
-        <v>46065</v>
+        <v>46077</v>
       </c>
       <c r="G192" s="52" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H192" s="52" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="I192" s="52" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -11263,16 +11263,16 @@
         <v>437</v>
       </c>
       <c r="F193" s="37">
-        <v>46065</v>
+        <v>46077</v>
       </c>
       <c r="G193" s="37" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H193" s="37" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="I193" s="42" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="J193" s="38" t="s">
         <v>64</v>
@@ -17540,6 +17540,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17683,22 +17698,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17716,31 +17741,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
